--- a/output/part1/grs_size_inv3.xlsx
+++ b/output/part1/grs_size_inv3.xlsx
@@ -462,87 +462,87 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.108199211686763</v>
+        <v>12.32780537112779</v>
       </c>
       <c r="B2" t="n">
-        <v>4.028582245574341e-08</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04747258203232517</v>
+        <v>0.005650367507975135</v>
       </c>
       <c r="D2" t="n">
-        <v>-321.7130117380449</v>
+        <v>0.6847753630127387</v>
       </c>
       <c r="E2" t="n">
-        <v>103499.2619215634</v>
+        <v>0.4689172977892279</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.631568509954333</v>
+        <v>9.706540520275604</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0002507384031796844</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03497651329250809</v>
+        <v>0.005016216216537845</v>
       </c>
       <c r="D3" t="n">
-        <v>-237.0294378293248</v>
+        <v>0.6079217459363185</v>
       </c>
       <c r="E3" t="n">
-        <v>56182.95439768575</v>
+        <v>0.3695688491822618</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.510418552977683</v>
+        <v>11.53359894141371</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0004957434899250934</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03142323753522282</v>
+        <v>0.005384636403213265</v>
       </c>
       <c r="D4" t="n">
-        <v>-212.9495374642332</v>
+        <v>0.65257106595237</v>
       </c>
       <c r="E4" t="n">
-        <v>45347.50550623086</v>
+        <v>0.4258489961182125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.303531227881488</v>
+        <v>11.09587213457653</v>
       </c>
       <c r="B5" t="n">
-        <v>1.239013713849602e-08</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07277280551709839</v>
+        <v>0.0058218375788665</v>
       </c>
       <c r="D5" t="n">
-        <v>-493.1680021025819</v>
+        <v>0.7055560431852629</v>
       </c>
       <c r="E5" t="n">
-        <v>243214.6782978523</v>
+        <v>0.4978093300752446</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.913108786015037</v>
+        <v>9.019377403777067</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01189373975835817</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02616375188075411</v>
+        <v>0.003979624763272925</v>
       </c>
       <c r="D6" t="n">
-        <v>-177.306964474628</v>
+        <v>0.4822958839541546</v>
       </c>
       <c r="E6" t="n">
-        <v>31437.75965120699</v>
+        <v>0.2326093196791194</v>
       </c>
     </row>
   </sheetData>
